--- a/database/seeds/seed_files/product-management.xlsx
+++ b/database/seeds/seed_files/product-management.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\L\Laravel\product-management\database\seeds\seed_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\JL-101\htdocs\P\pm-university\database\seeds\seed_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Channels" sheetId="2" r:id="rId1"/>
     <sheet name="Roles" sheetId="1" r:id="rId2"/>
     <sheet name="Levels" sheetId="3" r:id="rId3"/>
     <sheet name="Users" sheetId="5" r:id="rId4"/>
-    <sheet name="Topics" sheetId="4" r:id="rId5"/>
-    <sheet name="Tags" sheetId="6" r:id="rId6"/>
-    <sheet name="Content" sheetId="7" r:id="rId7"/>
+    <sheet name="topics" sheetId="4" r:id="rId5"/>
+    <sheet name="article_types" sheetId="6" r:id="rId6"/>
+    <sheet name="articles" sheetId="7" r:id="rId7"/>
     <sheet name="ContentTagging" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
   <si>
     <t>Super admin</t>
   </si>
@@ -250,12 +250,6 @@
   </si>
   <si>
     <t>created_by</t>
-  </si>
-  <si>
-    <t>top10</t>
-  </si>
-  <si>
-    <t>latest</t>
   </si>
   <si>
     <t>books</t>
@@ -900,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,10 +1590,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,22 +1639,6 @@
       </c>
       <c r="B5" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1687,13 +1665,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1707,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1721,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1735,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1749,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1763,7 +1741,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1777,7 +1755,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1791,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1805,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1819,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1833,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1847,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1861,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1875,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1889,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1903,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1917,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1931,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1945,7 +1923,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1959,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1973,7 +1951,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2019,10 +1997,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
